--- a/mf-intelligence/data/processed/quant/quant_Gilt_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Gilt_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">

--- a/mf-intelligence/data/processed/quant/quant_Gilt_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Gilt_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>

--- a/mf-intelligence/data/processed/quant/quant_Gilt_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Gilt_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
